--- a/biology/Biochimie/Alfred_G._Gilman/Alfred_G._Gilman.xlsx
+++ b/biology/Biochimie/Alfred_G._Gilman/Alfred_G._Gilman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Goodman Gilman est un biochimiste américain né à New Haven (Connecticut) le 1er juillet 1941 et mort le 23 décembre 2015 à Dallas[1]. Il a reçu le prix Nobel de physiologie ou médecine en 1994 avec Martin Rodbell pour leurs travaux sur les protéines membranaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Goodman Gilman est un biochimiste américain né à New Haven (Connecticut) le 1er juillet 1941 et mort le 23 décembre 2015 à Dallas. Il a reçu le prix Nobel de physiologie ou médecine en 1994 avec Martin Rodbell pour leurs travaux sur les protéines membranaires.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred G. Gilman est né à New Haven, dans le Connecticut, comme il l'a dit par la suite, "avec une cuillère d'argent scientifique / universitaire" dans la bouche "ou peut-être un pilon (mais pas le mortier)". [5] Ses parents étaient Mabel (Schmidt). et Alfred Gilman [6], professeur à la Yale School of Medicine et l’un des auteurs du manuel de pharmacologie classique de Goodman &amp; Gilman intitulé The Pharmacological Basis of Therapeutics (surnommé la «Bible bleue» de la pharmacologie) [5]. Son deuxième prénom était en l'honneur du co-auteur Louis S. Goodman. Le livre a été publié en 1941, année de sa naissance. Son ami Michael Stuart Brown (également né en 1941, puis lauréat du prix Nobel de médecine et de médecine en 1985) a dit en plaisantant que Gilman était "probablement la seule personne à avoir jamais été nommée d'après un livre texte". [6] En tant qu'un des rédacteurs du manuel de 1980 à 2000, il a d'abord collaboré avec son père, puis par Goodman [7]. Il avait une sœur aînée, Joanna Gilman. Il a grandi à White Plains, à New York, alors que son père travaillait à l'Université Columbia et au Collège de médecine Albert Einstein.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred G. Gilman est né à New Haven, dans le Connecticut, comme il l'a dit par la suite, "avec une cuillère d'argent scientifique / universitaire" dans la bouche "ou peut-être un pilon (mais pas le mortier)".  Ses parents étaient Mabel (Schmidt). et Alfred Gilman , professeur à la Yale School of Medicine et l’un des auteurs du manuel de pharmacologie classique de Goodman &amp; Gilman intitulé The Pharmacological Basis of Therapeutics (surnommé la «Bible bleue» de la pharmacologie) . Son deuxième prénom était en l'honneur du co-auteur Louis S. Goodman. Le livre a été publié en 1941, année de sa naissance. Son ami Michael Stuart Brown (également né en 1941, puis lauréat du prix Nobel de médecine et de médecine en 1985) a dit en plaisantant que Gilman était "probablement la seule personne à avoir jamais été nommée d'après un livre texte".  En tant qu'un des rédacteurs du manuel de 1980 à 2000, il a d'abord collaboré avec son père, puis par Goodman . Il avait une sœur aînée, Joanna Gilman. Il a grandi à White Plains, à New York, alors que son père travaillait à l'Université Columbia et au Collège de médecine Albert Einstein.
 </t>
         </is>
       </c>
